--- a/Ayudantias/ayudantia5/resolución.xlsx
+++ b/Ayudantias/ayudantia5/resolución.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Gabriel\Desktop\ayudantias\proba\Ayudantias\ayudantia5\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Gabriel\Desktop\ayudantias\proba\Ayudantias\ayudantia5\ayudantia5\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96BE2C01-A448-43FE-B6BB-CA06E1C75703}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC020C08-37FC-4EEF-9370-9D0C82954D97}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" xr2:uid="{A35027BD-98BF-4FC1-A6C3-9D369C387807}"/>
   </bookViews>
@@ -150,7 +150,7 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="168" formatCode="0.0000%"/>
+    <numFmt numFmtId="164" formatCode="0.0000%"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -234,7 +234,7 @@
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -247,20 +247,22 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="10" fontId="0" fillId="2" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="44" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Moneda" xfId="1" builtinId="4"/>
@@ -579,9 +581,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8966D341-D7DD-44CE-92B1-74273F36B022}">
   <dimension ref="A1:N87"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N61" sqref="N61"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -688,13 +688,13 @@
       <c r="I5" t="s">
         <v>8</v>
       </c>
-      <c r="L5" s="18" t="s">
+      <c r="L5" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="M5" s="18" t="s">
+      <c r="M5" s="15" t="s">
         <v>35</v>
       </c>
-      <c r="N5" s="18" t="s">
+      <c r="N5" s="15" t="s">
         <v>32</v>
       </c>
     </row>
@@ -709,14 +709,14 @@
       <c r="F6" t="s">
         <v>16</v>
       </c>
-      <c r="L6" s="13" t="s">
+      <c r="L6" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="M6" s="14">
+      <c r="M6" s="13">
         <f>J33</f>
         <v>147999999.98026621</v>
       </c>
-      <c r="N6" s="19">
+      <c r="N6" s="16">
         <v>0</v>
       </c>
     </row>
@@ -730,32 +730,32 @@
       <c r="D7" t="s">
         <v>8</v>
       </c>
-      <c r="K7" t="s">
+      <c r="L7" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="M7" s="21">
+        <f>K60</f>
+        <v>167595610.17424059</v>
+      </c>
+      <c r="N7" s="21">
+        <f>M7-M6</f>
+        <v>19595610.193974376</v>
+      </c>
+    </row>
+    <row r="8" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="K8" t="s">
         <v>34</v>
       </c>
-      <c r="L7" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="M7" s="8">
-        <f>K60</f>
-        <v>176835610.15647155</v>
-      </c>
-      <c r="N7" s="8">
-        <f>M7-M6</f>
-        <v>28835610.176205337</v>
-      </c>
-    </row>
-    <row r="8" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="L8" s="13" t="s">
+      <c r="L8" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="M8" s="14">
+      <c r="M8" s="8">
         <f>K86</f>
-        <v>174832414.37030327</v>
-      </c>
-      <c r="N8" s="14">
+        <v>172852414.37411088</v>
+      </c>
+      <c r="N8" s="8">
         <f>M8-M6</f>
-        <v>26832414.39003706</v>
+        <v>24852414.393844664</v>
       </c>
     </row>
     <row r="9" spans="2:14" x14ac:dyDescent="0.3">
@@ -801,7 +801,7 @@
       <c r="B12">
         <v>0</v>
       </c>
-      <c r="C12" s="15">
+      <c r="C12" s="14">
         <f>EXP(-$C$9)*$C$9^B12/FACT(B12)</f>
         <v>1.8315638888734179E-2</v>
       </c>
@@ -832,7 +832,7 @@
       <c r="B13">
         <v>1</v>
       </c>
-      <c r="C13" s="15">
+      <c r="C13" s="14">
         <f>_xlfn.POISSON.DIST(B13,$C$9,FALSE)</f>
         <v>7.3262555554936715E-2</v>
       </c>
@@ -869,7 +869,7 @@
       <c r="B14">
         <v>2</v>
       </c>
-      <c r="C14" s="15">
+      <c r="C14" s="14">
         <f t="shared" ref="C14:C32" si="1">_xlfn.POISSON.DIST(B14,$C$9,FALSE)</f>
         <v>0.14652511110987346</v>
       </c>
@@ -906,7 +906,7 @@
       <c r="B15">
         <v>3</v>
       </c>
-      <c r="C15" s="15">
+      <c r="C15" s="14">
         <f t="shared" si="1"/>
         <v>0.19536681481316462</v>
       </c>
@@ -943,7 +943,7 @@
       <c r="B16">
         <v>4</v>
       </c>
-      <c r="C16" s="15">
+      <c r="C16" s="14">
         <f t="shared" si="1"/>
         <v>0.19536681481316462</v>
       </c>
@@ -980,7 +980,7 @@
       <c r="B17">
         <v>5</v>
       </c>
-      <c r="C17" s="15">
+      <c r="C17" s="14">
         <f t="shared" si="1"/>
         <v>0.1562934518505317</v>
       </c>
@@ -1017,7 +1017,7 @@
       <c r="B18">
         <v>6</v>
       </c>
-      <c r="C18" s="15">
+      <c r="C18" s="14">
         <f t="shared" si="1"/>
         <v>0.10419563456702115</v>
       </c>
@@ -1054,7 +1054,7 @@
       <c r="B19">
         <v>7</v>
       </c>
-      <c r="C19" s="15">
+      <c r="C19" s="14">
         <f t="shared" si="1"/>
         <v>5.9540362609726373E-2</v>
       </c>
@@ -1091,7 +1091,7 @@
       <c r="B20">
         <v>8</v>
       </c>
-      <c r="C20" s="15">
+      <c r="C20" s="14">
         <f t="shared" si="1"/>
         <v>2.9770181304863183E-2</v>
       </c>
@@ -1128,7 +1128,7 @@
       <c r="B21">
         <v>9</v>
       </c>
-      <c r="C21" s="15">
+      <c r="C21" s="14">
         <f t="shared" si="1"/>
         <v>1.3231191691050297E-2</v>
       </c>
@@ -1165,7 +1165,7 @@
       <c r="B22">
         <v>10</v>
       </c>
-      <c r="C22" s="15">
+      <c r="C22" s="14">
         <f t="shared" si="1"/>
         <v>5.2924766764201169E-3</v>
       </c>
@@ -1202,7 +1202,7 @@
       <c r="B23">
         <v>11</v>
       </c>
-      <c r="C23" s="15">
+      <c r="C23" s="14">
         <f t="shared" si="1"/>
         <v>1.9245369732436813E-3</v>
       </c>
@@ -1239,7 +1239,7 @@
       <c r="B24">
         <v>12</v>
       </c>
-      <c r="C24" s="15">
+      <c r="C24" s="14">
         <f t="shared" si="1"/>
         <v>6.4151232441456022E-4</v>
       </c>
@@ -1276,7 +1276,7 @@
       <c r="B25">
         <v>13</v>
       </c>
-      <c r="C25" s="15">
+      <c r="C25" s="14">
         <f t="shared" si="1"/>
         <v>1.9738840751217212E-4</v>
       </c>
@@ -1313,7 +1313,7 @@
       <c r="B26">
         <v>14</v>
       </c>
-      <c r="C26" s="15">
+      <c r="C26" s="14">
         <f t="shared" si="1"/>
         <v>5.6396687860620615E-5</v>
       </c>
@@ -1350,7 +1350,7 @@
       <c r="B27">
         <v>15</v>
       </c>
-      <c r="C27" s="15">
+      <c r="C27" s="14">
         <f t="shared" si="1"/>
         <v>1.5039116762832177E-5</v>
       </c>
@@ -1387,7 +1387,7 @@
       <c r="B28">
         <v>16</v>
       </c>
-      <c r="C28" s="15">
+      <c r="C28" s="14">
         <f t="shared" si="1"/>
         <v>3.7597791907080502E-6</v>
       </c>
@@ -1424,7 +1424,7 @@
       <c r="B29">
         <v>17</v>
       </c>
-      <c r="C29" s="15">
+      <c r="C29" s="14">
         <f t="shared" si="1"/>
         <v>8.8465392722542387E-7</v>
       </c>
@@ -1461,7 +1461,7 @@
       <c r="B30">
         <v>18</v>
       </c>
-      <c r="C30" s="15">
+      <c r="C30" s="14">
         <f t="shared" si="1"/>
         <v>1.9658976160564875E-7</v>
       </c>
@@ -1498,7 +1498,7 @@
       <c r="B31">
         <v>19</v>
       </c>
-      <c r="C31" s="15">
+      <c r="C31" s="14">
         <f t="shared" si="1"/>
         <v>4.1387318232768188E-8</v>
       </c>
@@ -1535,7 +1535,7 @@
       <c r="B32">
         <v>20</v>
       </c>
-      <c r="C32" s="15">
+      <c r="C32" s="14">
         <f t="shared" si="1"/>
         <v>8.2774636465536645E-9</v>
       </c>
@@ -1578,11 +1578,11 @@
       </c>
     </row>
     <row r="34" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="G34" s="12" t="s">
+      <c r="G34" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="H34" s="12"/>
-      <c r="I34" s="12"/>
+      <c r="H34" s="17"/>
+      <c r="I34" s="17"/>
       <c r="J34" s="2">
         <f>D3-J33</f>
         <v>32000000.019733787</v>
@@ -1629,7 +1629,7 @@
       </c>
     </row>
     <row r="39" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A39" s="16" t="s">
+      <c r="A39" s="18" t="s">
         <v>31</v>
       </c>
       <c r="B39" s="6">
@@ -1655,20 +1655,20 @@
         <v>0</v>
       </c>
       <c r="I39" s="8">
-        <f>$G$3*$B$3</f>
-        <v>840000</v>
+        <f>$G$3*$B$3*12</f>
+        <v>10080000</v>
       </c>
       <c r="J39" s="8">
         <f>$D$3-SUM(E39:I39)</f>
-        <v>179160000</v>
+        <v>169920000</v>
       </c>
       <c r="K39" s="2">
         <f>J39*C39</f>
-        <v>3281429.8633056153</v>
+        <v>3112193.3599737114</v>
       </c>
     </row>
     <row r="40" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A40" s="16"/>
+      <c r="A40" s="18"/>
       <c r="B40" s="6">
         <v>1</v>
       </c>
@@ -1692,20 +1692,20 @@
         <v>0</v>
       </c>
       <c r="I40" s="8">
-        <f t="shared" ref="I40:I59" si="9">$G$3*$B$3</f>
-        <v>840000</v>
+        <f t="shared" ref="I40:I59" si="9">$G$3*$B$3*12</f>
+        <v>10080000</v>
       </c>
       <c r="J40" s="8">
         <f t="shared" ref="J40:J45" si="10">$D$3-SUM(E40:I40)</f>
-        <v>178960000</v>
+        <v>169720000</v>
       </c>
       <c r="K40" s="2">
         <f t="shared" ref="K40:K59" si="11">J40*C40</f>
-        <v>13111066.942111474</v>
+        <v>12434120.92878386</v>
       </c>
     </row>
     <row r="41" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A41" s="16"/>
+      <c r="A41" s="18"/>
       <c r="B41" s="6">
         <v>2</v>
       </c>
@@ -1730,19 +1730,19 @@
       </c>
       <c r="I41" s="8">
         <f t="shared" si="9"/>
-        <v>840000</v>
+        <v>10080000</v>
       </c>
       <c r="J41" s="8">
         <f t="shared" si="10"/>
-        <v>178760000</v>
+        <v>169520000</v>
       </c>
       <c r="K41" s="2">
         <f t="shared" si="11"/>
-        <v>26192828.862000979</v>
+        <v>24838936.835345749</v>
       </c>
     </row>
     <row r="42" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A42" s="16"/>
+      <c r="A42" s="18"/>
       <c r="B42" s="6">
         <v>3</v>
       </c>
@@ -1767,19 +1767,19 @@
       </c>
       <c r="I42" s="8">
         <f t="shared" si="9"/>
-        <v>840000</v>
+        <v>10080000</v>
       </c>
       <c r="J42" s="8">
         <f t="shared" si="10"/>
-        <v>178560000</v>
+        <v>169320000</v>
       </c>
       <c r="K42" s="2">
         <f t="shared" si="11"/>
-        <v>34884698.453038678</v>
+        <v>33079509.084165033</v>
       </c>
     </row>
     <row r="43" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A43" s="16"/>
+      <c r="A43" s="18"/>
       <c r="B43" s="6">
         <v>4</v>
       </c>
@@ -1804,19 +1804,19 @@
       </c>
       <c r="I43" s="8">
         <f t="shared" si="9"/>
-        <v>840000</v>
+        <v>10080000</v>
       </c>
       <c r="J43" s="8">
         <f t="shared" si="10"/>
-        <v>178360000</v>
+        <v>169120000</v>
       </c>
       <c r="K43" s="2">
         <f t="shared" si="11"/>
-        <v>34845625.090076044</v>
+        <v>33040435.7212024</v>
       </c>
     </row>
     <row r="44" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A44" s="16"/>
+      <c r="A44" s="18"/>
       <c r="B44" s="6">
         <v>5</v>
       </c>
@@ -1841,19 +1841,19 @@
       </c>
       <c r="I44" s="8">
         <f t="shared" si="9"/>
-        <v>840000</v>
+        <v>10080000</v>
       </c>
       <c r="J44" s="8">
         <f t="shared" si="10"/>
-        <v>178160000</v>
+        <v>168920000</v>
       </c>
       <c r="K44" s="2">
         <f t="shared" si="11"/>
-        <v>27845241.381690729</v>
+        <v>26401089.886591814</v>
       </c>
     </row>
     <row r="45" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A45" s="16"/>
+      <c r="A45" s="18"/>
       <c r="B45" s="6">
         <v>6</v>
       </c>
@@ -1878,15 +1878,15 @@
       </c>
       <c r="I45" s="8">
         <f t="shared" si="9"/>
-        <v>840000</v>
+        <v>10080000</v>
       </c>
       <c r="J45" s="8">
         <f t="shared" si="10"/>
-        <v>177960000</v>
+        <v>168720000</v>
       </c>
       <c r="K45" s="2">
         <f t="shared" si="11"/>
-        <v>18542655.127547082</v>
+        <v>17579887.464147806</v>
       </c>
     </row>
     <row r="46" spans="1:14" x14ac:dyDescent="0.3">
@@ -1916,15 +1916,15 @@
       </c>
       <c r="I46" s="11">
         <f t="shared" si="9"/>
-        <v>840000</v>
+        <v>10080000</v>
       </c>
       <c r="J46" s="11">
         <f t="shared" ref="J46" si="13">$D$3-SUM(E46:I46)</f>
-        <v>169960000</v>
+        <v>160720000</v>
       </c>
       <c r="K46" s="2">
         <f t="shared" si="11"/>
-        <v>10119480.029149095</v>
+        <v>9569327.0786352232</v>
       </c>
     </row>
     <row r="47" spans="1:14" x14ac:dyDescent="0.3">
@@ -1954,15 +1954,15 @@
       </c>
       <c r="I47" s="11">
         <f t="shared" si="9"/>
-        <v>840000</v>
+        <v>10080000</v>
       </c>
       <c r="J47" s="11">
         <f t="shared" ref="J47:J59" si="17">$D$3-SUM(E47:I47)</f>
-        <v>161960000</v>
+        <v>152720000</v>
       </c>
       <c r="K47" s="2">
         <f t="shared" si="11"/>
-        <v>4821578.5641356409</v>
+        <v>4546502.0888787052</v>
       </c>
     </row>
     <row r="48" spans="1:14" x14ac:dyDescent="0.3">
@@ -1992,15 +1992,15 @@
       </c>
       <c r="I48" s="11">
         <f t="shared" si="9"/>
-        <v>840000</v>
+        <v>10080000</v>
       </c>
       <c r="J48" s="11">
         <f t="shared" si="17"/>
-        <v>153960000</v>
+        <v>144720000</v>
       </c>
       <c r="K48" s="2">
         <f t="shared" si="11"/>
-        <v>2037074.2727541036</v>
+        <v>1914818.0615287989</v>
       </c>
     </row>
     <row r="49" spans="2:14" x14ac:dyDescent="0.3">
@@ -2030,15 +2030,15 @@
       </c>
       <c r="I49" s="11">
         <f t="shared" si="9"/>
-        <v>840000</v>
+        <v>10080000</v>
       </c>
       <c r="J49" s="11">
         <f t="shared" si="17"/>
-        <v>145960000</v>
+        <v>136720000</v>
       </c>
       <c r="K49" s="2">
         <f t="shared" si="11"/>
-        <v>772489.89569028025</v>
+        <v>723587.41120015841</v>
       </c>
     </row>
     <row r="50" spans="2:14" x14ac:dyDescent="0.3">
@@ -2068,15 +2068,15 @@
       </c>
       <c r="I50" s="11">
         <f t="shared" si="9"/>
-        <v>840000</v>
+        <v>10080000</v>
       </c>
       <c r="J50" s="11">
         <f t="shared" si="17"/>
-        <v>137960000</v>
+        <v>128720000</v>
       </c>
       <c r="K50" s="2">
         <f t="shared" si="11"/>
-        <v>265509.12082869827</v>
+        <v>247726.39919592667</v>
       </c>
     </row>
     <row r="51" spans="2:14" x14ac:dyDescent="0.3">
@@ -2106,15 +2106,15 @@
       </c>
       <c r="I51" s="11">
         <f t="shared" si="9"/>
-        <v>840000</v>
+        <v>10080000</v>
       </c>
       <c r="J51" s="11">
         <f t="shared" si="17"/>
-        <v>129960000</v>
+        <v>120720000</v>
       </c>
       <c r="K51" s="2">
         <f t="shared" si="11"/>
-        <v>83370.94168091625</v>
+        <v>77443.367803325717</v>
       </c>
     </row>
     <row r="52" spans="2:14" x14ac:dyDescent="0.3">
@@ -2144,15 +2144,15 @@
       </c>
       <c r="I52" s="11">
         <f t="shared" si="9"/>
-        <v>840000</v>
+        <v>10080000</v>
       </c>
       <c r="J52" s="11">
         <f t="shared" si="17"/>
-        <v>121960000</v>
+        <v>112720000</v>
       </c>
       <c r="K52" s="2">
         <f t="shared" si="11"/>
-        <v>24073.490180184512</v>
+        <v>22249.621294772041</v>
       </c>
     </row>
     <row r="53" spans="2:14" x14ac:dyDescent="0.3">
@@ -2182,15 +2182,15 @@
       </c>
       <c r="I53" s="11">
         <f t="shared" si="9"/>
-        <v>840000</v>
+        <v>10080000</v>
       </c>
       <c r="J53" s="11">
         <f t="shared" si="17"/>
-        <v>113960000</v>
+        <v>104720000</v>
       </c>
       <c r="K53" s="2">
         <f t="shared" si="11"/>
-        <v>6426.9665485963251</v>
+        <v>5905.8611527641906</v>
       </c>
     </row>
     <row r="54" spans="2:14" x14ac:dyDescent="0.3">
@@ -2220,15 +2220,15 @@
       </c>
       <c r="I54" s="11">
         <f t="shared" si="9"/>
-        <v>840000</v>
+        <v>10080000</v>
       </c>
       <c r="J54" s="11">
         <f t="shared" si="17"/>
-        <v>105960000</v>
+        <v>96720000</v>
       </c>
       <c r="K54" s="2">
         <f t="shared" si="11"/>
-        <v>1593.5448121896975</v>
+        <v>1454.5833733011282</v>
       </c>
     </row>
     <row r="55" spans="2:14" x14ac:dyDescent="0.3">
@@ -2258,15 +2258,15 @@
       </c>
       <c r="I55" s="11">
         <f t="shared" si="9"/>
-        <v>840000</v>
+        <v>10080000</v>
       </c>
       <c r="J55" s="11">
         <f t="shared" si="17"/>
-        <v>97960000</v>
+        <v>88720000</v>
       </c>
       <c r="K55" s="2">
         <f t="shared" si="11"/>
-        <v>368.30796952176058</v>
+        <v>333.5676097996182</v>
       </c>
     </row>
     <row r="56" spans="2:14" x14ac:dyDescent="0.3">
@@ -2296,15 +2296,15 @@
       </c>
       <c r="I56" s="11">
         <f t="shared" si="9"/>
-        <v>840000</v>
+        <v>10080000</v>
       </c>
       <c r="J56" s="11">
         <f t="shared" si="17"/>
-        <v>89960000</v>
+        <v>80720000</v>
       </c>
       <c r="K56" s="2">
         <f t="shared" si="11"/>
-        <v>79.583467293199135</v>
+        <v>71.409265005636215</v>
       </c>
     </row>
     <row r="57" spans="2:14" x14ac:dyDescent="0.3">
@@ -2334,15 +2334,15 @@
       </c>
       <c r="I57" s="11">
         <f t="shared" si="9"/>
-        <v>840000</v>
+        <v>10080000</v>
       </c>
       <c r="J57" s="11">
         <f t="shared" si="17"/>
-        <v>81960000</v>
+        <v>72720000</v>
       </c>
       <c r="K57" s="2">
         <f t="shared" si="11"/>
-        <v>16.11249686119897</v>
+        <v>14.296007463962777</v>
       </c>
     </row>
     <row r="58" spans="2:14" x14ac:dyDescent="0.3">
@@ -2372,15 +2372,15 @@
       </c>
       <c r="I58" s="11">
         <f t="shared" si="9"/>
-        <v>840000</v>
+        <v>10080000</v>
       </c>
       <c r="J58" s="11">
         <f t="shared" si="17"/>
-        <v>73960000</v>
+        <v>64720000</v>
       </c>
       <c r="K58" s="2">
         <f t="shared" si="11"/>
-        <v>3.0610060564955353</v>
+        <v>2.6785872360247573</v>
       </c>
     </row>
     <row r="59" spans="2:14" x14ac:dyDescent="0.3">
@@ -2410,15 +2410,15 @@
       </c>
       <c r="I59" s="11">
         <f t="shared" si="9"/>
-        <v>840000</v>
+        <v>10080000</v>
       </c>
       <c r="J59" s="11">
         <f t="shared" si="17"/>
-        <v>65960000</v>
+        <v>56720000</v>
       </c>
       <c r="K59" s="2">
         <f t="shared" si="11"/>
-        <v>0.54598150212667973</v>
+        <v>0.46949773803252387</v>
       </c>
     </row>
     <row r="60" spans="2:14" x14ac:dyDescent="0.3">
@@ -2427,18 +2427,18 @@
       </c>
       <c r="K60" s="2">
         <f>SUM(K39:K59)</f>
-        <v>176835610.15647155</v>
+        <v>167595610.17424059</v>
       </c>
     </row>
     <row r="61" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="H61" s="12" t="s">
+      <c r="H61" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="I61" s="12"/>
-      <c r="J61" s="12"/>
+      <c r="I61" s="17"/>
+      <c r="J61" s="17"/>
       <c r="K61" s="2">
         <f>D3-K60</f>
-        <v>3164389.8435284495</v>
+        <v>12404389.825759411</v>
       </c>
       <c r="N61" s="2"/>
     </row>
@@ -2477,7 +2477,7 @@
       </c>
     </row>
     <row r="65" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A65" s="17" t="s">
+      <c r="A65" s="19" t="s">
         <v>31</v>
       </c>
       <c r="B65" s="6">
@@ -2503,20 +2503,20 @@
         <v>0</v>
       </c>
       <c r="I65" s="8">
-        <f>$H$3*$B$3</f>
-        <v>180000</v>
+        <f>$H$3*$B$3*12</f>
+        <v>2160000</v>
       </c>
       <c r="J65" s="8">
         <f>$D$3-SUM(E65:I65)</f>
-        <v>179820000</v>
+        <v>177840000</v>
       </c>
       <c r="K65" s="2">
         <f>J65*C65</f>
-        <v>3293518.1849721801</v>
+        <v>3257253.2199724861</v>
       </c>
     </row>
     <row r="66" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A66" s="17"/>
+      <c r="A66" s="19"/>
       <c r="B66" s="6">
         <v>1</v>
       </c>
@@ -2540,20 +2540,20 @@
         <v>700000</v>
       </c>
       <c r="I66" s="8">
-        <f t="shared" ref="I66:I85" si="20">$H$3*$B$3</f>
-        <v>180000</v>
+        <f t="shared" ref="I66:I85" si="20">$H$3*$B$3*12</f>
+        <v>2160000</v>
       </c>
       <c r="J66" s="8">
         <f t="shared" ref="J66:J85" si="21">$D$3-SUM(E66:I66)</f>
-        <v>178920000</v>
+        <v>176940000</v>
       </c>
       <c r="K66" s="2">
         <f t="shared" ref="K66:K85" si="22">J66*C66</f>
-        <v>13108136.439889276</v>
+        <v>12963076.579890503</v>
       </c>
     </row>
     <row r="67" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A67" s="17"/>
+      <c r="A67" s="19"/>
       <c r="B67" s="6">
         <v>2</v>
       </c>
@@ -2578,19 +2578,19 @@
       </c>
       <c r="I67" s="8">
         <f t="shared" si="20"/>
-        <v>180000</v>
+        <v>2160000</v>
       </c>
       <c r="J67" s="8">
         <f t="shared" si="21"/>
-        <v>178020000</v>
+        <v>176040000</v>
       </c>
       <c r="K67" s="2">
         <f t="shared" si="22"/>
-        <v>26084400.279779673</v>
+        <v>25794280.559782125</v>
       </c>
     </row>
     <row r="68" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A68" s="17"/>
+      <c r="A68" s="19"/>
       <c r="B68" s="6">
         <v>3</v>
       </c>
@@ -2615,19 +2615,19 @@
       </c>
       <c r="I68" s="8">
         <f t="shared" si="20"/>
-        <v>180000</v>
+        <v>2160000</v>
       </c>
       <c r="J68" s="8">
         <f t="shared" si="21"/>
-        <v>177120000</v>
+        <v>175140000</v>
       </c>
       <c r="K68" s="2">
         <f t="shared" si="22"/>
-        <v>34603370.239707716</v>
+        <v>34216543.94637765</v>
       </c>
     </row>
     <row r="69" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A69" s="17"/>
+      <c r="A69" s="19"/>
       <c r="B69" s="6">
         <v>4</v>
       </c>
@@ -2652,19 +2652,19 @@
       </c>
       <c r="I69" s="8">
         <f t="shared" si="20"/>
-        <v>180000</v>
+        <v>2160000</v>
       </c>
       <c r="J69" s="8">
         <f t="shared" si="21"/>
-        <v>176220000</v>
+        <v>174240000</v>
       </c>
       <c r="K69" s="2">
         <f t="shared" si="22"/>
-        <v>34427540.106375866</v>
+        <v>34040713.8130458</v>
       </c>
     </row>
     <row r="70" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A70" s="17"/>
+      <c r="A70" s="19"/>
       <c r="B70" s="6">
         <v>5</v>
       </c>
@@ -2689,19 +2689,19 @@
       </c>
       <c r="I70" s="8">
         <f t="shared" si="20"/>
-        <v>180000</v>
+        <v>2160000</v>
       </c>
       <c r="J70" s="8">
         <f t="shared" si="21"/>
-        <v>175320000</v>
+        <v>173340000</v>
       </c>
       <c r="K70" s="2">
         <f t="shared" si="22"/>
-        <v>27401367.978435218</v>
+        <v>27091906.943771165</v>
       </c>
     </row>
     <row r="71" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A71" s="17"/>
+      <c r="A71" s="19"/>
       <c r="B71" s="6">
         <v>6</v>
       </c>
@@ -2726,15 +2726,15 @@
       </c>
       <c r="I71" s="8">
         <f t="shared" si="20"/>
-        <v>180000</v>
+        <v>2160000</v>
       </c>
       <c r="J71" s="8">
         <f t="shared" si="21"/>
-        <v>174420000</v>
+        <v>172440000</v>
       </c>
       <c r="K71" s="2">
         <f t="shared" si="22"/>
-        <v>18173802.581179827</v>
+        <v>17967495.224737126</v>
       </c>
     </row>
     <row r="72" spans="1:11" x14ac:dyDescent="0.3">
@@ -2764,15 +2764,15 @@
       </c>
       <c r="I72" s="11">
         <f t="shared" si="20"/>
-        <v>180000</v>
+        <v>2160000</v>
       </c>
       <c r="J72" s="11">
         <f t="shared" si="21"/>
-        <v>166420000</v>
+        <v>164440000</v>
       </c>
       <c r="K72" s="2">
         <f t="shared" si="22"/>
-        <v>9908707.1455106623</v>
+        <v>9790817.2275434043</v>
       </c>
     </row>
     <row r="73" spans="1:11" x14ac:dyDescent="0.3">
@@ -2802,15 +2802,15 @@
       </c>
       <c r="I73" s="11">
         <f t="shared" si="20"/>
-        <v>180000</v>
+        <v>2160000</v>
       </c>
       <c r="J73" s="11">
         <f t="shared" si="21"/>
-        <v>158420000</v>
+        <v>156440000</v>
       </c>
       <c r="K73" s="2">
         <f t="shared" si="22"/>
-        <v>4716192.1223164257</v>
+        <v>4657247.1633327967</v>
       </c>
     </row>
     <row r="74" spans="1:11" x14ac:dyDescent="0.3">
@@ -2840,15 +2840,15 @@
       </c>
       <c r="I74" s="11">
         <f t="shared" si="20"/>
-        <v>180000</v>
+        <v>2160000</v>
       </c>
       <c r="J74" s="11">
         <f t="shared" si="21"/>
-        <v>150420000</v>
+        <v>148440000</v>
       </c>
       <c r="K74" s="2">
         <f t="shared" si="22"/>
-        <v>1990235.8541677857</v>
+        <v>1964038.094619506</v>
       </c>
     </row>
     <row r="75" spans="1:11" x14ac:dyDescent="0.3">
@@ -2878,15 +2878,15 @@
       </c>
       <c r="I75" s="11">
         <f t="shared" si="20"/>
-        <v>180000</v>
+        <v>2160000</v>
       </c>
       <c r="J75" s="11">
         <f t="shared" si="21"/>
-        <v>142420000</v>
+        <v>140440000</v>
       </c>
       <c r="K75" s="2">
         <f t="shared" si="22"/>
-        <v>753754.5282557531</v>
+        <v>743275.42443644127</v>
       </c>
     </row>
     <row r="76" spans="1:11" x14ac:dyDescent="0.3">
@@ -2916,15 +2916,15 @@
       </c>
       <c r="I76" s="11">
         <f t="shared" si="20"/>
-        <v>180000</v>
+        <v>2160000</v>
       </c>
       <c r="J76" s="11">
         <f t="shared" si="21"/>
-        <v>134420000</v>
+        <v>132440000</v>
       </c>
       <c r="K76" s="2">
         <f t="shared" si="22"/>
-        <v>258696.25994341564</v>
+        <v>254885.67673639316</v>
       </c>
     </row>
     <row r="77" spans="1:11" x14ac:dyDescent="0.3">
@@ -2954,15 +2954,15 @@
       </c>
       <c r="I77" s="11">
         <f t="shared" si="20"/>
-        <v>180000</v>
+        <v>2160000</v>
       </c>
       <c r="J77" s="11">
         <f t="shared" si="21"/>
-        <v>126420000</v>
+        <v>124440000</v>
       </c>
       <c r="K77" s="2">
         <f t="shared" si="22"/>
-        <v>81099.988052488698</v>
+        <v>79829.793650147869</v>
       </c>
     </row>
     <row r="78" spans="1:11" x14ac:dyDescent="0.3">
@@ -2992,15 +2992,15 @@
       </c>
       <c r="I78" s="11">
         <f t="shared" si="20"/>
-        <v>180000</v>
+        <v>2160000</v>
       </c>
       <c r="J78" s="11">
         <f t="shared" si="21"/>
-        <v>118420000</v>
+        <v>116440000</v>
       </c>
       <c r="K78" s="2">
         <f t="shared" si="22"/>
-        <v>23374.735217591424</v>
+        <v>22983.90617071732</v>
       </c>
     </row>
     <row r="79" spans="1:11" x14ac:dyDescent="0.3">
@@ -3030,15 +3030,15 @@
       </c>
       <c r="I79" s="11">
         <f t="shared" si="20"/>
-        <v>180000</v>
+        <v>2160000</v>
       </c>
       <c r="J79" s="11">
         <f t="shared" si="21"/>
-        <v>110420000</v>
+        <v>108440000</v>
       </c>
       <c r="K79" s="2">
         <f t="shared" si="22"/>
-        <v>6227.3222735697282</v>
+        <v>6115.6568316056992</v>
       </c>
     </row>
     <row r="80" spans="1:11" x14ac:dyDescent="0.3">
@@ -3068,15 +3068,15 @@
       </c>
       <c r="I80" s="11">
         <f t="shared" si="20"/>
-        <v>180000</v>
+        <v>2160000</v>
       </c>
       <c r="J80" s="11">
         <f t="shared" si="21"/>
-        <v>102420000</v>
+        <v>100440000</v>
       </c>
       <c r="K80" s="2">
         <f t="shared" si="22"/>
-        <v>1540.3063388492715</v>
+        <v>1510.5288876588638</v>
       </c>
     </row>
     <row r="81" spans="2:11" x14ac:dyDescent="0.3">
@@ -3106,15 +3106,15 @@
       </c>
       <c r="I81" s="11">
         <f t="shared" si="20"/>
-        <v>180000</v>
+        <v>2160000</v>
       </c>
       <c r="J81" s="11">
         <f t="shared" si="21"/>
-        <v>94420000</v>
+        <v>92440000</v>
       </c>
       <c r="K81" s="2">
         <f t="shared" si="22"/>
-        <v>354.99835118665408</v>
+        <v>347.55398838905217</v>
       </c>
     </row>
     <row r="82" spans="2:11" x14ac:dyDescent="0.3">
@@ -3144,15 +3144,15 @@
       </c>
       <c r="I82" s="11">
         <f t="shared" si="20"/>
-        <v>180000</v>
+        <v>2160000</v>
       </c>
       <c r="J82" s="11">
         <f t="shared" si="21"/>
-        <v>86420000</v>
+        <v>84440000</v>
       </c>
       <c r="K82" s="2">
         <f t="shared" si="22"/>
-        <v>76.451792390821126</v>
+        <v>74.700177614914793</v>
       </c>
     </row>
     <row r="83" spans="2:11" x14ac:dyDescent="0.3">
@@ -3182,15 +3182,15 @@
       </c>
       <c r="I83" s="11">
         <f t="shared" si="20"/>
-        <v>180000</v>
+        <v>2160000</v>
       </c>
       <c r="J83" s="11">
         <f t="shared" si="21"/>
-        <v>78420000</v>
+        <v>76440000</v>
       </c>
       <c r="K83" s="2">
         <f t="shared" si="22"/>
-        <v>15.416569105114975</v>
+        <v>15.02732137713579</v>
       </c>
     </row>
     <row r="84" spans="2:11" x14ac:dyDescent="0.3">
@@ -3220,15 +3220,15 @@
       </c>
       <c r="I84" s="11">
         <f t="shared" si="20"/>
-        <v>180000</v>
+        <v>2160000</v>
       </c>
       <c r="J84" s="11">
         <f t="shared" si="21"/>
-        <v>70420000</v>
+        <v>68440000</v>
       </c>
       <c r="K84" s="2">
         <f t="shared" si="22"/>
-        <v>2.914494949951536</v>
+        <v>2.8325480598506547</v>
       </c>
     </row>
     <row r="85" spans="2:11" x14ac:dyDescent="0.3">
@@ -3258,15 +3258,15 @@
       </c>
       <c r="I85" s="11">
         <f t="shared" si="20"/>
-        <v>180000</v>
+        <v>2160000</v>
       </c>
       <c r="J85" s="11">
         <f t="shared" si="21"/>
-        <v>62420000</v>
+        <v>60440000</v>
       </c>
       <c r="K85" s="2">
         <f t="shared" si="22"/>
-        <v>0.51667928081787973</v>
+        <v>0.50028990279770347</v>
       </c>
     </row>
     <row r="86" spans="2:11" x14ac:dyDescent="0.3">
@@ -3275,18 +3275,18 @@
       </c>
       <c r="K86" s="2">
         <f>SUM(K65:K85)</f>
-        <v>174832414.37030327</v>
+        <v>172852414.37411088</v>
       </c>
     </row>
     <row r="87" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="H87" s="12" t="s">
+      <c r="H87" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="I87" s="12"/>
-      <c r="J87" s="12"/>
+      <c r="I87" s="17"/>
+      <c r="J87" s="17"/>
       <c r="K87" s="2">
         <f>D3-K86</f>
-        <v>5167585.6296967268</v>
+        <v>7147585.6258891225</v>
       </c>
     </row>
   </sheetData>
